--- a/data/trans_camb/P1803_2016_2023-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1803_2016_2023-Habitat-trans_camb.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>2.154247375930111</v>
+        <v>2.15424737593011</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>4.980909056101868</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3.604643718836277</v>
+        <v>3.604643718836279</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.3074750420809826</v>
+        <v>-0.281656292421207</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.723186122615123</v>
+        <v>2.840157181776013</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.779816005554285</v>
+        <v>2.001822918918619</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.671028064164347</v>
+        <v>4.68472600415095</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.302021145275088</v>
+        <v>7.187258564287072</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.283817247653401</v>
+        <v>5.228479649396306</v>
       </c>
     </row>
     <row r="7">
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>0.5554178116230936</v>
+        <v>0.5554178116230931</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>1.388739212907125</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.9656581000798793</v>
+        <v>0.96565810007988</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.07026314772029825</v>
+        <v>-0.05985705913710238</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.5504242402476696</v>
+        <v>0.5610606471767496</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.3945435503675103</v>
+        <v>0.4432012536419954</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.566391860280127</v>
+        <v>1.644148075081575</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.914756814095249</v>
+        <v>2.780813303947594</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.781180952180429</v>
+        <v>1.712747256757212</v>
       </c>
     </row>
     <row r="10">
@@ -670,10 +670,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>2.650759177161802</v>
+        <v>2.650759177161801</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>4.055970807450981</v>
+        <v>4.055970807450979</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>3.36073156315876</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5701563329107545</v>
+        <v>0.4864577677524772</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.904333727883448</v>
+        <v>2.236936040169409</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.968877572015287</v>
+        <v>1.875715125634091</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.918744846456618</v>
+        <v>5.086917157486309</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.050698551134802</v>
+        <v>6.087972630644364</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.200372775549742</v>
+        <v>5.067533794851548</v>
       </c>
     </row>
     <row r="13">
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>0.622641159696919</v>
+        <v>0.6226411596969187</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.857084055285131</v>
+        <v>0.8570840552851308</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.7473038966852192</v>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.06533745340928747</v>
+        <v>0.06284004271975206</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.3454924704184312</v>
+        <v>0.3662838631771957</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.3662789529249212</v>
+        <v>0.3582231871890248</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.432043459525002</v>
+        <v>1.463400752364504</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.629852208388398</v>
+        <v>1.638346171580414</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.323019967461722</v>
+        <v>1.350979123275193</v>
       </c>
     </row>
     <row r="16">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>3.333830445911756</v>
+        <v>3.333830445911758</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>4.693044981874922</v>
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9225436836796646</v>
+        <v>1.069355294441583</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.408841135021687</v>
+        <v>2.174871324181503</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.532259679530977</v>
+        <v>2.400593386097619</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.996540141409978</v>
+        <v>5.88356620124487</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.268584643273752</v>
+        <v>7.045030791544066</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.889231328628018</v>
+        <v>5.796879644945264</v>
       </c>
     </row>
     <row r="19">
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>0.9479852102932604</v>
+        <v>0.9479852102932609</v>
       </c>
       <c r="D19" s="6" t="n">
         <v>0.9405482198804296</v>
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1681248148182771</v>
+        <v>0.2184254753386276</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.3657579318030881</v>
+        <v>0.3049292405641728</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.491830046123283</v>
+        <v>0.4471181261957767</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.298264988891435</v>
+        <v>2.262920523185945</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.831812833113863</v>
+        <v>1.845996905024921</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.648850788421894</v>
+        <v>1.606050456169515</v>
       </c>
     </row>
     <row r="22">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>5.095690164796886</v>
+        <v>5.095690164796885</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>4.145295201914548</v>
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.138956370110282</v>
+        <v>2.512336156933065</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.615098032283465</v>
+        <v>1.749718927828528</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.667520363981922</v>
+        <v>2.718467417097921</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.641632534732566</v>
+        <v>7.811384949000944</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.500617215755683</v>
+        <v>6.641504268121151</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.333669528366226</v>
+        <v>6.446231702421324</v>
       </c>
     </row>
     <row r="25">
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>0.8084835780296175</v>
+        <v>0.8084835780296172</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>0.520978558407279</v>
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.2619448261912327</v>
+        <v>0.3242130377585747</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.16037125077101</v>
+        <v>0.1758630833447664</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3185647274220474</v>
+        <v>0.3268765317914589</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.477977136344389</v>
+        <v>1.506611884389016</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.9749371841806111</v>
+        <v>0.9927664466631677</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.018309552901258</v>
+        <v>1.002759805882127</v>
       </c>
     </row>
     <row r="28">
@@ -994,7 +994,7 @@
         <v>4.410717880700889</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3.922622607525953</v>
+        <v>3.922622607525954</v>
       </c>
     </row>
     <row r="29">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.137375602634285</v>
+        <v>2.104097243457955</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.298604024912152</v>
+        <v>3.27650990181865</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3.067880347743891</v>
+        <v>3.153061508637213</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.648069079021865</v>
+        <v>4.639172091107229</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.609400049579627</v>
+        <v>5.603318999105529</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.706685891571087</v>
+        <v>4.737689520770012</v>
       </c>
     </row>
     <row r="31">
@@ -1045,7 +1045,7 @@
         <v>0.7988480766564364</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.7749934766931744</v>
+        <v>0.7749934766931746</v>
       </c>
     </row>
     <row r="32">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.4143030583040843</v>
+        <v>0.4271183737539399</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.5360252348196279</v>
+        <v>0.5256683051156998</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.5515410422699335</v>
+        <v>0.5772116792352543</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.142083819829439</v>
+        <v>1.136395343983243</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.159053118014389</v>
+        <v>1.118245146584259</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.004734801349557</v>
+        <v>1.023221971612105</v>
       </c>
     </row>
     <row r="34">
